--- a/doc/ue_FTextLocalizationManager.xlsx
+++ b/doc/ue_FTextLocalizationManager.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852C851E-3204-4448-9779-7EDD361AA680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,16 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
   <si>
     <t>UE支持多语言的实现原理：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>内部记录了所有多语言的文本数据：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FDisplayStringLookupTable DisplayStringLookupTable;</t>
   </si>
   <si>
@@ -44,14 +39,6 @@
     <t>typedef TMap&lt;FTextId, FDisplayStringEntry&gt; FDisplayStringLookupTable</t>
   </si>
   <si>
-    <t>TEXTID变化的信息，每次文字多语言变化的时候，这个数值就++，外部记录的老数据和当前的比较，不一样就更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TextId和具体的信息MAP，每次都查询这个获取对应的语言的文字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>引擎初始化的时候会读取一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -65,14 +52,6 @@
   </si>
   <si>
     <t>每次语言变化的时候会读取一次，根据当前语言，读取其目录下面的文字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">FText </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虽然UE4和UE5版本实现的有差别，但是原理差不多</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -152,14 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>构造时已经获取了真实的displaystring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLocalizedTextData当发生语言切换时，内部的displaystring不会修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获取的就是当前语言的displaystring</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -184,14 +155,62 @@
   </si>
   <si>
     <t>注意，构造函数的是TLocalizedTextData类型，会导致这里没任何的效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虽然UE4和UE5版本实现的FText有差别，但是原理差不多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextId变化的信息，每次文字多语言变化的时候，这个数值就++，外部记录的老数据和当前的比较，不一样就更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextId和具体的信息MAP，每次都查询这个获取对应的语言文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rebuild会刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ftext构造函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意这个TLocalizedTextData类：当发生语言切换时，内部的displaystring不会修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部记录了多语言的文本数据：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void OnCultureChanged();</t>
+  </si>
+  <si>
+    <t>void OnPakFileMounted(const IPakFile&amp; PakFile);</t>
+  </si>
+  <si>
+    <t>InitEngineTextLocalization();</t>
+  </si>
+  <si>
+    <t>BeginInitGameTextLocalization();</t>
+  </si>
+  <si>
+    <t>FText，内部会维护多语言的信息，在ToString时返回多语言文本，从FTextLocalizationManager中获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FText构造函数：构造时已经获取了真实的displaystring</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -560,293 +579,350 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:T62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12">
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
       <c r="C5" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="D6" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="D7" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="D9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="D12" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="D14" s="1"/>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="D15" s="1"/>
+      <c r="F15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="D17" s="1"/>
+      <c r="F17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="D19" s="1"/>
+      <c r="F19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="C21" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="C23" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6">
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6">
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6">
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6">
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6">
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6">
+      <c r="D30" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6">
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6">
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9">
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9">
+      <c r="E34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9">
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9">
+      <c r="D36" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9">
+      <c r="D37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9">
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9">
+      <c r="E39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9">
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9">
+      <c r="C41" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9">
+      <c r="C42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9">
+      <c r="C43" s="1"/>
+      <c r="D43" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="3:9">
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9">
+      <c r="E45" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="D7" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="D8" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L9" s="6"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="6"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="D12" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14" t="s">
+    <row r="46" spans="3:9">
+      <c r="E46" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
+    <row r="47" spans="3:9">
+      <c r="D47" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="2" t="s">
+    </row>
+    <row r="48" spans="3:9">
+      <c r="E48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="4:9">
+      <c r="D49" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C20" s="1" t="s">
+    <row r="50" spans="4:9">
+      <c r="D50" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="4:9">
+      <c r="D51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="4:9">
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="4:9">
+      <c r="E53" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="4:9">
+      <c r="E54" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="4:9">
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="4:9">
+      <c r="D56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="4:9">
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="4:9">
+      <c r="E58" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" s="1" t="s">
+    <row r="59" spans="4:9">
+      <c r="E59" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="4:9">
+      <c r="E60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="4:9">
+      <c r="F61" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="4:9">
+      <c r="F62" t="s">
+        <v>28</v>
+      </c>
+      <c r="I62" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="D34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="E35" t="s">
-        <v>22</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="D36" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C38" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="D39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="E40" t="s">
-        <v>28</v>
-      </c>
-      <c r="S40" s="1" t="s">
+    <row r="63" spans="4:9">
+      <c r="F63" t="s">
         <v>29</v>
       </c>
-      <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="E41" t="s">
-        <v>15</v>
-      </c>
-      <c r="S41" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="T41" s="3"/>
-    </row>
-    <row r="42" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="D42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="E43" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="D44" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="D46" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="D47" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="E48" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="E50" t="s">
-        <v>20</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D51" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D53" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="54" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D54" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="E55" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="56" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="E56" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="57" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="E57" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="F58" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="59" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="F59" t="s">
-        <v>35</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="60" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="F60" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="61" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="E61" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D62" t="s">
-        <v>17</v>
+    </row>
+    <row r="64" spans="4:9">
+      <c r="E64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4">
+      <c r="D65" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
